--- a/04_tables/incident_charges_matched.xlsx
+++ b/04_tables/incident_charges_matched.xlsx
@@ -63,27 +63,27 @@
     <t>BURGLARY-NO FORCE</t>
   </si>
   <si>
+    <t>DAMAGE TO PROPERTY(NON-CRIMINAL)</t>
+  </si>
+  <si>
+    <t>FOUND PROPERTY</t>
+  </si>
+  <si>
+    <t>HARASSMENT</t>
+  </si>
+  <si>
     <t>B&amp;E VEH (ATT LAR F/VEH)</t>
   </si>
   <si>
-    <t>FOUND PROPERTY</t>
-  </si>
-  <si>
-    <t>HARASSMENT</t>
-  </si>
-  <si>
-    <t>DAMAGE TO PROPERTY(NON-CRIMINAL)</t>
+    <t>COMMUNICATING THREATS -INTIMIDATION, NON PHYSICAL THREAT</t>
+  </si>
+  <si>
+    <t>ABANDONED VEHICLE</t>
   </si>
   <si>
     <t>COMMUNITY OUTREACH</t>
   </si>
   <si>
-    <t>ABANDONED VEHICLE</t>
-  </si>
-  <si>
-    <t>COMMUNICATING THREATS -INTIMIDATION, NON PHYSICAL THREAT</t>
-  </si>
-  <si>
     <t>LARCENY FROM MOTOR VEHICLE</t>
   </si>
   <si>
@@ -93,142 +93,175 @@
     <t>LARCENY FROM BUILDING</t>
   </si>
   <si>
+    <t>ASSIST OTHER AGENCY</t>
+  </si>
+  <si>
     <t>BARKING DOGS</t>
   </si>
   <si>
-    <t>ASSIST OTHER AGENCY</t>
-  </si>
-  <si>
     <t>FRAUD-ALL OTHER</t>
   </si>
   <si>
+    <t>FUNERAL ESCORT</t>
+  </si>
+  <si>
+    <t>INVOLUNTARY COMMITMENT-NON CRIMINAL DETAINMENT</t>
+  </si>
+  <si>
     <t>VOLUNTARY MENTAL COMMITMENT</t>
   </si>
   <si>
-    <t>FUNERAL ESCORT</t>
-  </si>
-  <si>
     <t>LARCENY FROM RESIDENCE</t>
   </si>
   <si>
-    <t>INVOLUNTARY COMMITMENT-NON CRIMINAL DETAINMENT</t>
-  </si>
-  <si>
     <t>DOMESTIC SIMPLE  ASSAULT</t>
   </si>
   <si>
+    <t>DISTURBANCE</t>
+  </si>
+  <si>
+    <t>FIGHTING/ AFFRAY</t>
+  </si>
+  <si>
     <t>DAMAGE TO PROPERTY</t>
   </si>
   <si>
-    <t>FIGHTING/ AFFRAY</t>
-  </si>
-  <si>
-    <t>DISTURBANCE</t>
-  </si>
-  <si>
     <t>OVERDOSE</t>
   </si>
   <si>
+    <t>AUTOMOBILE THEFT</t>
+  </si>
+  <si>
     <t>ARMED ROBBERY</t>
   </si>
   <si>
-    <t>AUTOMOBILE THEFT</t>
+    <t>BURGLARY W/FORCE</t>
   </si>
   <si>
     <t>ASSAULT ON FEMALE</t>
   </si>
   <si>
-    <t>BURGLARY W/FORCE</t>
-  </si>
-  <si>
     <t>TOWED VEHICLE</t>
   </si>
   <si>
+    <t>DEATH INVESTIGATION</t>
+  </si>
+  <si>
     <t>LOUD MUSIC/PARTY/OTHER NOISE</t>
   </si>
   <si>
-    <t>DEATH INVESTIGATION</t>
-  </si>
-  <si>
     <t>LOST PROPERTY</t>
   </si>
   <si>
+    <t>LARCENY OF CELL PHONE</t>
+  </si>
+  <si>
+    <t>DRUG VIOLATIONS</t>
+  </si>
+  <si>
+    <t>LOUD PARTY FOLLOW UP</t>
+  </si>
+  <si>
+    <t>PHYSICAL SIMPLE ASSAULT-NON AGGRAVATED</t>
+  </si>
+  <si>
+    <t>ASSAULT WITH A DEADLY WEAPON</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS VEHICLE</t>
+  </si>
+  <si>
+    <t>LOUD PARTY</t>
+  </si>
+  <si>
     <t>LARCENY</t>
   </si>
   <si>
-    <t>ASSAULT WITH A DEADLY WEAPON</t>
-  </si>
-  <si>
-    <t>LOUD PARTY</t>
-  </si>
-  <si>
-    <t>LARCENY OF CELL PHONE</t>
-  </si>
-  <si>
-    <t>PHYSICAL SIMPLE ASSAULT-NON AGGRAVATED</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS VEHICLE</t>
-  </si>
-  <si>
-    <t>DRUG VIOLATIONS</t>
-  </si>
-  <si>
-    <t>LOUD PARTY FOLLOW UP</t>
-  </si>
-  <si>
     <t>REFUSE TO LEAVE</t>
   </si>
   <si>
+    <t>CHECK WELL BEING</t>
+  </si>
+  <si>
     <t>SUSPICIOUS PERSONS</t>
   </si>
   <si>
-    <t>CHECK WELL BEING</t>
+    <t>DOMESTIC DISTURBANCE</t>
+  </si>
+  <si>
+    <t>SIMPLE POSSESSION</t>
+  </si>
+  <si>
+    <t>ALARM</t>
+  </si>
+  <si>
+    <t>LOUD MUSIC</t>
+  </si>
+  <si>
+    <t>INDECENT EXPOSURE</t>
+  </si>
+  <si>
+    <t>B&amp;E VEH</t>
+  </si>
+  <si>
+    <t>SEXUAL BATTERY</t>
   </si>
   <si>
     <t>TRAFFIC COMPLAINT</t>
   </si>
   <si>
-    <t>B&amp;E VEH</t>
-  </si>
-  <si>
     <t>CREDIT CARD/ATM FRAUD</t>
   </si>
   <si>
-    <t>DOMESTIC DISTURBANCE</t>
-  </si>
-  <si>
-    <t>LOUD MUSIC</t>
-  </si>
-  <si>
-    <t>INDECENT EXPOSURE</t>
-  </si>
-  <si>
-    <t>SIMPLE POSSESSION</t>
-  </si>
-  <si>
-    <t>SEXUAL BATTERY</t>
-  </si>
-  <si>
-    <t>ALARM</t>
+    <t>ROBBERY</t>
+  </si>
+  <si>
+    <t>MISSING PERSON</t>
+  </si>
+  <si>
+    <t>EQUIP/PARAPHERNALIA-POSS/CONCEALING</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS</t>
+  </si>
+  <si>
+    <t>ALCOHOL VIOLATIONS</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTORCYCLE / MOPED</t>
+  </si>
+  <si>
+    <t>PEEPING TOM</t>
+  </si>
+  <si>
+    <t>SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>DAMAGE TO PROPERTY (WILLFUL)</t>
+  </si>
+  <si>
+    <t>NARCOTIC SNIFF</t>
+  </si>
+  <si>
+    <t>LARCENY FROM AUTO /PARTS AND ACCESSORIES</t>
+  </si>
+  <si>
+    <t>IDENTITY THEFT</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED USE OF CONVEYANCE</t>
+  </si>
+  <si>
+    <t>CHILD NEGLECT (NO ASSAULT)</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS CONDITIONS</t>
   </si>
   <si>
     <t>LARCENY AFTER B&amp;E</t>
   </si>
   <si>
-    <t>IDENTITY THEFT</t>
-  </si>
-  <si>
-    <t>DAMAGE TO PROPERTY (WILLFUL)</t>
-  </si>
-  <si>
-    <t>MISSING PERSON</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED USE OF CONVEYANCE</t>
-  </si>
-  <si>
-    <t>ALCOHOL VIOLATIONS</t>
+    <t>VERBAL ARGUMENT</t>
   </si>
   <si>
     <t>CHECK ON WELL BEING</t>
@@ -237,585 +270,552 @@
     <t>OBTAINING MONEY BY FALSE PRETENSE</t>
   </si>
   <si>
-    <t>ROBBERY</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTORCYCLE / MOPED</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS CONDITIONS</t>
-  </si>
-  <si>
     <t>ASSIST FIRE DEPARTMENT</t>
   </si>
   <si>
-    <t>SUSPICIOUS</t>
-  </si>
-  <si>
-    <t>EQUIP/PARAPHERNALIA-POSS/CONCEALING</t>
-  </si>
-  <si>
-    <t>NARCOTIC SNIFF</t>
-  </si>
-  <si>
-    <t>PEEPING TOM</t>
-  </si>
-  <si>
-    <t>LARCENY FROM AUTO /PARTS AND ACCESSORIES</t>
-  </si>
-  <si>
-    <t>VERBAL ARGUMENT</t>
-  </si>
-  <si>
-    <t>SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>CHILD NEGLECT (NO ASSAULT)</t>
+    <t>NUISANCE</t>
+  </si>
+  <si>
+    <t>CHECK ON WELL-BEING</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>K9 SNIFF</t>
+  </si>
+  <si>
+    <t>IMPROPERLY PARKED VEHICLE</t>
   </si>
   <si>
     <t>WELL-BEING CHECK</t>
   </si>
   <si>
+    <t>THREATENING PHONE CALLS</t>
+  </si>
+  <si>
     <t>SEXUAL ASSAULT</t>
   </si>
   <si>
+    <t>DOMESTIC AGGRAVATED ASSAULT</t>
+  </si>
+  <si>
+    <t>CRUELTY TO ANIMALS (CITY ORDINANCE)</t>
+  </si>
+  <si>
     <t>SUSPICIOUS ACTIVITY</t>
   </si>
   <si>
-    <t>NUISANCE</t>
+    <t>HARASSING PHONE CALLS-NO THREATS</t>
+  </si>
+  <si>
+    <t>B&amp;E SHED-FORCE</t>
+  </si>
+  <si>
+    <t>UNDISCIPLINED CHILD</t>
+  </si>
+  <si>
+    <t>PROBATION VIOLATION</t>
+  </si>
+  <si>
+    <t>POSSESSING/CONCEALING STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>ATTEMPTED SUICIDE</t>
+  </si>
+  <si>
+    <t>KIDNAPPING</t>
+  </si>
+  <si>
+    <t>LOUD NOISE</t>
   </si>
   <si>
     <t>VEHICLE UNLOCK</t>
   </si>
   <si>
-    <t>KIDNAPPING</t>
-  </si>
-  <si>
-    <t>CRUELTY TO ANIMALS (CITY ORDINANCE)</t>
+    <t>TRAFFIC / DIRECTED PATROL</t>
+  </si>
+  <si>
+    <t>ASSIST CITIZEN</t>
+  </si>
+  <si>
+    <t>CREDIT CARD FRAUD</t>
+  </si>
+  <si>
+    <t>CIVIL MATTER</t>
+  </si>
+  <si>
+    <t>CALL FOR SERVICE</t>
+  </si>
+  <si>
+    <t>PARKING COMPLAINT</t>
+  </si>
+  <si>
+    <t>DOMESTIC ASSISTANCE</t>
   </si>
   <si>
     <t>NEIGHBOR DISPUTE</t>
   </si>
   <si>
-    <t>K9 SNIFF</t>
-  </si>
-  <si>
-    <t>CIVIL MATTER</t>
-  </si>
-  <si>
-    <t>ASSIST CITIZEN</t>
-  </si>
-  <si>
-    <t>DOMESTIC AGGRAVATED ASSAULT</t>
-  </si>
-  <si>
-    <t>UNDISCIPLINED CHILD</t>
-  </si>
-  <si>
-    <t>TRAFFIC / DIRECTED PATROL</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS CIRCUMSTANCES</t>
-  </si>
-  <si>
-    <t>LOUD NOISE</t>
-  </si>
-  <si>
-    <t>CHECK ON WELL-BEING</t>
-  </si>
-  <si>
-    <t>ATTEMPTED SUICIDE</t>
-  </si>
-  <si>
-    <t>POSSESSING/CONCEALING STOLEN PROPERTY</t>
-  </si>
-  <si>
-    <t>DOMESTIC ASSISTANCE</t>
-  </si>
-  <si>
-    <t>THREATENING PHONE CALLS</t>
-  </si>
-  <si>
-    <t>CREDIT CARD FRAUD</t>
-  </si>
-  <si>
     <t>K-9 SNIFF</t>
   </si>
   <si>
-    <t>PROBATION VIOLATION</t>
-  </si>
-  <si>
-    <t>B&amp;E SHED-FORCE</t>
-  </si>
-  <si>
-    <t>CALL FOR SERVICE</t>
-  </si>
-  <si>
-    <t>IMPROPERLY PARKED VEHICLE</t>
-  </si>
-  <si>
-    <t>HARASSING PHONE CALLS-NO THREATS</t>
-  </si>
-  <si>
-    <t>PARKING COMPLAINT</t>
+    <t>DOMESTIC ASSIST</t>
+  </si>
+  <si>
+    <t>LARCENY FROM PERSON</t>
+  </si>
+  <si>
+    <t>PUBLIC ASSISTANCE</t>
+  </si>
+  <si>
+    <t>PARKING DISPUTE</t>
+  </si>
+  <si>
+    <t>OUTSTANDING WARRANT</t>
+  </si>
+  <si>
+    <t>DOG CALL</t>
+  </si>
+  <si>
+    <t>CIVIL DISPUTE</t>
+  </si>
+  <si>
+    <t>SELL COCAINE</t>
+  </si>
+  <si>
+    <t>MENTAL DISORDER</t>
+  </si>
+  <si>
+    <t>LARCENY OF DOG</t>
+  </si>
+  <si>
+    <t>CARDIAC ARREST</t>
+  </si>
+  <si>
+    <t>DOMESTIC DISTURBANCE- POSSIBLE ASSAULT</t>
+  </si>
+  <si>
+    <t>LARCENY- CELL PHONE</t>
   </si>
   <si>
     <t>UNAUTHORIZED USE OF BICYCLE</t>
   </si>
   <si>
+    <t>K-9 DEMONSTRATION</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>LARCENY OF CELLPHONE</t>
+  </si>
+  <si>
+    <t>SELL AND DELIVER SCH I</t>
+  </si>
+  <si>
+    <t>EQUIPMENT/PARAPHERNALIA-MANUFACTURING</t>
+  </si>
+  <si>
+    <t>DIRECTED PATROL</t>
+  </si>
+  <si>
+    <t>FORGERY- USING/UTTERING</t>
+  </si>
+  <si>
+    <t>IPVS</t>
+  </si>
+  <si>
+    <t>LICENSE CHECKPOINT</t>
+  </si>
+  <si>
+    <t>B&amp;E VEH (NO PROPERTY TAKEN)</t>
+  </si>
+  <si>
+    <t>ASSIST OC EMS</t>
+  </si>
+  <si>
+    <t>AGGRAVATED ASSAULT WITH SEXUAL MOTIVES</t>
+  </si>
+  <si>
+    <t>DUSTURBANCE</t>
+  </si>
+  <si>
+    <t>LARCENY OF STREET SIGN</t>
+  </si>
+  <si>
+    <t>PUBLIC INEBRIATE</t>
+  </si>
+  <si>
+    <t>FIREWORKS / GUNSHOTS</t>
+  </si>
+  <si>
+    <t>LARCENY OF PACKAGES</t>
+  </si>
+  <si>
+    <t>GOOD NEIGHBOR/NATIONAL NIGHT OUT</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS BEHAVIOR</t>
+  </si>
+  <si>
+    <t>ABANDONED VEHICLES</t>
+  </si>
+  <si>
+    <t>SUICIDE ATTEMPT</t>
+  </si>
+  <si>
+    <t>LARCENY OF MEDICATIONS</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS INCIDENT</t>
+  </si>
+  <si>
+    <t>GUNSHOTS HEARD</t>
+  </si>
+  <si>
+    <t>OPEN CONTAINER</t>
+  </si>
+  <si>
+    <t>OBTAINING PROPERTY FALSE PRETENSE</t>
+  </si>
+  <si>
+    <t>ASSIST ORANGE COUNTY</t>
+  </si>
+  <si>
+    <t>TRAFFIC COMPLAINT-RESIDENTIAL PARKING</t>
+  </si>
+  <si>
+    <t>WARRANT SERVICE</t>
+  </si>
+  <si>
+    <t>ILLEGALLY PARKED VEHICLE</t>
+  </si>
+  <si>
+    <t>50B ORDER VIOLATION</t>
+  </si>
+  <si>
+    <t>DWLR</t>
+  </si>
+  <si>
+    <t>COMMUNICATING THREATS</t>
+  </si>
+  <si>
+    <t>VEHICLE FIRE</t>
+  </si>
+  <si>
+    <t>DOG BITES AND ATTACKS</t>
+  </si>
+  <si>
+    <t>VEHICLE DAMAGE</t>
+  </si>
+  <si>
+    <t>LARCENY- OF BICYCLE</t>
+  </si>
+  <si>
+    <t>LARCENY OF WATER</t>
+  </si>
+  <si>
+    <t>LARCENY OF A LICENSE PLATE</t>
+  </si>
+  <si>
+    <t>LARCENY OF MAIL</t>
+  </si>
+  <si>
+    <t>ABANDONED PROPERTY</t>
+  </si>
+  <si>
+    <t>OPEN CONTAINER OF MALT BEVERAGE</t>
+  </si>
+  <si>
+    <t>COMMUNICATING UNWANTED ADVANCES</t>
+  </si>
+  <si>
+    <t>UNLOCK VEHICLE</t>
+  </si>
+  <si>
+    <t>HIT AND RUN</t>
+  </si>
+  <si>
+    <t>HOMICIDAL THREATS</t>
+  </si>
+  <si>
+    <t>NOISY FOWL</t>
+  </si>
+  <si>
+    <t>REPORT OF GUNSHOTS</t>
+  </si>
+  <si>
+    <t>PARAPHERNALIA- POSSESSING/CONCEALING EQUIPMENT</t>
+  </si>
+  <si>
+    <t>VICIOUS DOG/LEASH LAW VIOLATION</t>
+  </si>
+  <si>
+    <t>POSSIBLE DRUG ACTIVITY</t>
+  </si>
+  <si>
+    <t>GUN SHOTS HEARD</t>
+  </si>
+  <si>
+    <t>WELL BEING CHECK</t>
+  </si>
+  <si>
+    <t>PURSE SNATCHING</t>
+  </si>
+  <si>
+    <t>POLICE ADVICE</t>
+  </si>
+  <si>
+    <t>ASSIST EMS (SUICIDE ATTEMPT)</t>
+  </si>
+  <si>
+    <t>POSSESSING STOLEN VEHICLE</t>
+  </si>
+  <si>
+    <t>STATUTORY RAPE</t>
+  </si>
+  <si>
+    <t>SELL CRACK COCAINE</t>
+  </si>
+  <si>
+    <t>LARCENY- MEDICATION</t>
+  </si>
+  <si>
+    <t>ARGUMENT OVER CHILD CARE</t>
+  </si>
+  <si>
+    <t>CIVIL DISPUTE OVER MONEY</t>
+  </si>
+  <si>
+    <t>LARCENY OF PATIO CUSHIONS</t>
+  </si>
+  <si>
+    <t>DISPUTE</t>
+  </si>
+  <si>
+    <t>ANIMAL ABUSE</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE/ASSAULT-N INJURY</t>
+  </si>
+  <si>
+    <t>EMERGENCY COMMITMENT-NON CRIMINAL DETAINMENT</t>
+  </si>
+  <si>
+    <t>INFORMATION(DUPLICATE REPORT)</t>
+  </si>
+  <si>
+    <t>LARCENY OF A BICYCLE</t>
+  </si>
+  <si>
+    <t>B&amp;E LARCENY FROM VEHICLE</t>
+  </si>
+  <si>
+    <t>DOG BARKING COMPLAINT</t>
+  </si>
+  <si>
+    <t>DISCHARGING FIREARM</t>
+  </si>
+  <si>
+    <t>SIMPLE POSSESSION OF MARIJUANA</t>
+  </si>
+  <si>
+    <t>STALKING</t>
+  </si>
+  <si>
+    <t>K9 DEMO</t>
+  </si>
+  <si>
+    <t>ANIMAL DISPATCH</t>
+  </si>
+  <si>
+    <t>POSSESSION OF MARIJUANA</t>
+  </si>
+  <si>
+    <t>SEXUAL HARASSMENT</t>
+  </si>
+  <si>
+    <t>DRIVING WHILE IMPAIRED</t>
+  </si>
+  <si>
+    <t>VANDALISM/DAMAGE TO PROPERTY</t>
+  </si>
+  <si>
+    <t>ASSIST PROBATION</t>
+  </si>
+  <si>
     <t>VEHICLE SEARCH</t>
   </si>
   <si>
+    <t>LARCENY OF LAWN CHAIR</t>
+  </si>
+  <si>
+    <t>UNFOUNDED LOUD NOISE</t>
+  </si>
+  <si>
+    <t>NDL - OPERATOR OR CHAUFFER</t>
+  </si>
+  <si>
+    <t>B&amp;E VEHICLE(ATT LARCENY)</t>
+  </si>
+  <si>
+    <t>INFORMATION-JUVENILE ASSIST</t>
+  </si>
+  <si>
+    <t>DRUG VIOLATION- OTHER</t>
+  </si>
+  <si>
+    <t>SUICIDAL THREATS</t>
+  </si>
+  <si>
+    <t>VERBAL DOMESTIC</t>
+  </si>
+  <si>
+    <t>POSSIBLE DRUG USE</t>
+  </si>
+  <si>
+    <t>LARCENY OF SCOOTER</t>
+  </si>
+  <si>
+    <t>ATTEMPTED B&amp;E RESIDENCE-FORCE</t>
+  </si>
+  <si>
+    <t>ANIMAL CALL</t>
+  </si>
+  <si>
+    <t>ASSIST CPS</t>
+  </si>
+  <si>
+    <t>EMBEZZLEMENT- OTHER</t>
+  </si>
+  <si>
+    <t>GUNSHOTS</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTORCYCLE</t>
+  </si>
+  <si>
+    <t>UNDERAGE POSSESSION</t>
+  </si>
+  <si>
     <t>CRASH INVESTIGATION</t>
   </si>
   <si>
-    <t>SUSPICIOUS INCIDENT</t>
-  </si>
-  <si>
-    <t>ASSIST EMS (SUICIDE ATTEMPT)</t>
+    <t>FORCIBLE RAPE</t>
+  </si>
+  <si>
+    <t>B&amp;E BUSINESS-FORCE</t>
   </si>
   <si>
     <t>ANIMAL CONCERN</t>
   </si>
   <si>
+    <t>PROPERTY CHECK</t>
+  </si>
+  <si>
+    <t>REFUSAL TO LEAVE</t>
+  </si>
+  <si>
+    <t>FOUND I PHONE</t>
+  </si>
+  <si>
+    <t>LARCENY OF A LAWN MOWER</t>
+  </si>
+  <si>
+    <t>NUISANCE COMPLAINT</t>
+  </si>
+  <si>
+    <t>ABANDONED HOUSE/PROERTY</t>
+  </si>
+  <si>
+    <t>ASSIST CHATHAM COUNTY</t>
+  </si>
+  <si>
+    <t>HIT &amp; RUN</t>
+  </si>
+  <si>
+    <t>INFORMATION LANDLORD DISPUTE</t>
+  </si>
+  <si>
+    <t>NO INSURANCE</t>
+  </si>
+  <si>
+    <t>CHECK WELL-BEING</t>
+  </si>
+  <si>
+    <t>STRONG ARM ROBBERY</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS NOISE</t>
+  </si>
+  <si>
+    <t>ASSIST BAIL BONDSMAN</t>
+  </si>
+  <si>
+    <t>GRAFFITI VANDALISM</t>
+  </si>
+  <si>
+    <t>LARCENY OF FIREARM</t>
+  </si>
+  <si>
+    <t>IMPROPERLY PARKED VEHICLES</t>
+  </si>
+  <si>
+    <t>ASSISTANCE</t>
+  </si>
+  <si>
+    <t>FICTITIOUS TAG</t>
+  </si>
+  <si>
+    <t>DISCHARGING PYROTECHNICS - USE/FIREWORKS</t>
+  </si>
+  <si>
+    <t>FRAUDULENT FACEBOOK ACCOUNT</t>
+  </si>
+  <si>
+    <t>BARKING DOG</t>
+  </si>
+  <si>
+    <t>LARCENY OF WATCH</t>
+  </si>
+  <si>
+    <t>USING FRAUDULENT ID CARD</t>
+  </si>
+  <si>
+    <t>K-9 DEMO/ COMMUNITY TALK</t>
+  </si>
+  <si>
+    <t>TOWING SCAM</t>
+  </si>
+  <si>
+    <t>RUNAWAY</t>
+  </si>
+  <si>
+    <t>ARSON</t>
+  </si>
+  <si>
     <t>POSSIBLE STOLEN BICYCLE</t>
   </si>
   <si>
-    <t>LARCENY OF MEDICATIONS</t>
-  </si>
-  <si>
-    <t>DWLR</t>
-  </si>
-  <si>
-    <t>POSSIBLE DRUG USE</t>
-  </si>
-  <si>
-    <t>LARCENY OF A LAWN MOWER</t>
-  </si>
-  <si>
-    <t>REFUSAL TO LEAVE</t>
-  </si>
-  <si>
-    <t>DIRECTED PATROL</t>
-  </si>
-  <si>
-    <t>LARCENY OF CELLPHONE</t>
-  </si>
-  <si>
-    <t>POSSIBLE DRUG ACTIVITY</t>
-  </si>
-  <si>
-    <t>HIT &amp; RUN</t>
-  </si>
-  <si>
-    <t>PARAPHERNALIA- POSSESSING/CONCEALING EQUIPMENT</t>
-  </si>
-  <si>
-    <t>CIVIL DISPUTE</t>
-  </si>
-  <si>
-    <t>GOOD NEIGHBOR/NATIONAL NIGHT OUT</t>
-  </si>
-  <si>
-    <t>PROPERTY CHECK</t>
-  </si>
-  <si>
-    <t>VEHICLE DAMAGE</t>
-  </si>
-  <si>
-    <t>DRIVING WHILE IMPAIRED</t>
-  </si>
-  <si>
-    <t>INFORMATION LANDLORD DISPUTE</t>
-  </si>
-  <si>
-    <t>LARCENY- CELL PHONE</t>
-  </si>
-  <si>
-    <t>LARCENY OF A LICENSE PLATE</t>
-  </si>
-  <si>
-    <t>HOMICIDAL THREATS</t>
-  </si>
-  <si>
-    <t>DISCHARGING PYROTECHNICS - USE/FIREWORKS</t>
-  </si>
-  <si>
-    <t>RUNAWAY</t>
-  </si>
-  <si>
-    <t>DOG BITES AND ATTACKS</t>
-  </si>
-  <si>
-    <t>ASSIST BAIL BONDSMAN</t>
-  </si>
-  <si>
-    <t>ANIMAL DISPATCH</t>
-  </si>
-  <si>
-    <t>LARCENY OF STREET SIGN</t>
-  </si>
-  <si>
-    <t>DOMESTIC ASSIST</t>
-  </si>
-  <si>
-    <t>LICENSE CHECKPOINT</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE/ASSAULT-N INJURY</t>
-  </si>
-  <si>
-    <t>DOG BARKING COMPLAINT</t>
-  </si>
-  <si>
-    <t>IMPROPERLY PARKED VEHICLES</t>
-  </si>
-  <si>
-    <t>STATUTORY RAPE</t>
-  </si>
-  <si>
-    <t>ASSISTANCE</t>
-  </si>
-  <si>
-    <t>B&amp;E VEH (NO PROPERTY TAKEN)</t>
-  </si>
-  <si>
-    <t>GUNSHOTS HEARD</t>
-  </si>
-  <si>
-    <t>POLICE ADVICE</t>
-  </si>
-  <si>
-    <t>LARCENY OF FIREARM</t>
-  </si>
-  <si>
-    <t>ASSIST OC EMS</t>
-  </si>
-  <si>
-    <t>SUICIDE ATTEMPT</t>
-  </si>
-  <si>
-    <t>CHECK WELL-BEING</t>
-  </si>
-  <si>
-    <t>VANDALISM/DAMAGE TO PROPERTY</t>
-  </si>
-  <si>
-    <t>WARRANT SERVICE</t>
-  </si>
-  <si>
-    <t>LARCENY OF SCOOTER</t>
-  </si>
-  <si>
-    <t>LARCENY OF WATER</t>
-  </si>
-  <si>
-    <t>NO INSURANCE</t>
-  </si>
-  <si>
-    <t>SIMPLE POSSESSION OF MARIJUANA</t>
-  </si>
-  <si>
-    <t>MENTAL DISORDER</t>
-  </si>
-  <si>
-    <t>POSSESSING STOLEN VEHICLE</t>
-  </si>
-  <si>
-    <t>OBTAINING PROPERTY FALSE PRETENSE</t>
-  </si>
-  <si>
-    <t>DOG CALL</t>
-  </si>
-  <si>
-    <t>ASSIST ORANGE COUNTY</t>
-  </si>
-  <si>
-    <t>FORGERY- USING/UTTERING</t>
-  </si>
-  <si>
-    <t>K9 DEMO</t>
-  </si>
-  <si>
-    <t>LARCENY OF DOG</t>
-  </si>
-  <si>
-    <t>CIVIL DISPUTE OVER MONEY</t>
-  </si>
-  <si>
-    <t>TRAFFIC COMPLAINT-RESIDENTIAL PARKING</t>
-  </si>
-  <si>
-    <t>LARCENY OF A BICYCLE</t>
-  </si>
-  <si>
-    <t>STALKING</t>
+    <t>PHONE SCAM</t>
+  </si>
+  <si>
+    <t>MURDER &amp; NONNEGLIENT MANSLAUGHTER</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE/ASSAULT-NO INJURY</t>
   </si>
   <si>
     <t>TRAFFIC STOP</t>
   </si>
   <si>
-    <t>PURSE SNATCHING</t>
-  </si>
-  <si>
-    <t>ARSON</t>
-  </si>
-  <si>
-    <t>ASSIST CPS</t>
-  </si>
-  <si>
-    <t>POSSESSION OF MARIJUANA</t>
-  </si>
-  <si>
-    <t>VICIOUS DOG/LEASH LAW VIOLATION</t>
-  </si>
-  <si>
-    <t>FICTITIOUS TAG</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTOR VEHICLE</t>
-  </si>
-  <si>
-    <t>OPEN CONTAINER</t>
-  </si>
-  <si>
-    <t>FOUND I PHONE</t>
-  </si>
-  <si>
-    <t>ANIMAL CALL</t>
-  </si>
-  <si>
-    <t>PHONE SCAM</t>
+    <t>ACCIDENTAL ALARM</t>
   </si>
   <si>
     <t>FOUND PURSE</t>
   </si>
   <si>
-    <t>REPORT OF GUNSHOTS</t>
-  </si>
-  <si>
-    <t>ASSIST PROBATION</t>
-  </si>
-  <si>
-    <t>COMMUNICATING UNWANTED ADVANCES</t>
-  </si>
-  <si>
-    <t>UNDERAGE POSSESSION</t>
-  </si>
-  <si>
-    <t>IPVS</t>
-  </si>
-  <si>
-    <t>PUBLIC ASSISTANCE</t>
-  </si>
-  <si>
-    <t>SELL COCAINE</t>
-  </si>
-  <si>
-    <t>INFORMATION(DUPLICATE REPORT)</t>
-  </si>
-  <si>
-    <t>ARGUMENT OVER CHILD CARE</t>
-  </si>
-  <si>
-    <t>DOMESTIC DISTURBANCE- POSSIBLE ASSAULT</t>
-  </si>
-  <si>
-    <t>LARCENY- MEDICATION</t>
-  </si>
-  <si>
-    <t>CARDIAC ARREST</t>
-  </si>
-  <si>
-    <t>PUBLIC INEBRIATE</t>
-  </si>
-  <si>
-    <t>NDL - OPERATOR OR CHAUFFER</t>
-  </si>
-  <si>
-    <t>ACCIDENTAL ALARM</t>
-  </si>
-  <si>
-    <t>B&amp;E BUSINESS-FORCE</t>
-  </si>
-  <si>
-    <t>ABANDONED VEHICLES</t>
-  </si>
-  <si>
-    <t>TOWING SCAM</t>
-  </si>
-  <si>
-    <t>EMERGENCY COMMITMENT-NON CRIMINAL DETAINMENT</t>
-  </si>
-  <si>
-    <t>SELL AND DELIVER SCH I</t>
-  </si>
-  <si>
-    <t>LARCENY OF LAWN CHAIR</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS BEHAVIOR</t>
-  </si>
-  <si>
-    <t>VEHICLE FIRE</t>
-  </si>
-  <si>
-    <t>K-9 DEMO/ COMMUNITY TALK</t>
-  </si>
-  <si>
-    <t>EMBEZZLEMENT- OTHER</t>
-  </si>
-  <si>
-    <t>OUTSTANDING WARRANT</t>
-  </si>
-  <si>
-    <t>ABANDONED HOUSE/PROERTY</t>
-  </si>
-  <si>
-    <t>UNFOUNDED LOUD NOISE</t>
-  </si>
-  <si>
-    <t>LARCENY OF PATIO CUSHIONS</t>
-  </si>
-  <si>
-    <t>SEXUAL HARASSMENT</t>
-  </si>
-  <si>
-    <t>NUISANCE COMPLAINT</t>
-  </si>
-  <si>
-    <t>FRAUDULENT FACEBOOK ACCOUNT</t>
-  </si>
-  <si>
-    <t>LARCENY FROM PERSON</t>
-  </si>
-  <si>
-    <t>INFORMATION-JUVENILE ASSIST</t>
-  </si>
-  <si>
-    <t>ASSIST CHATHAM COUNTY</t>
-  </si>
-  <si>
-    <t>LARCENY OF PACKAGES</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTORCYCLE</t>
-  </si>
-  <si>
-    <t>FORCIBLE RAPE</t>
-  </si>
-  <si>
-    <t>HIT AND RUN</t>
-  </si>
-  <si>
-    <t>NOISY FOWL</t>
-  </si>
-  <si>
-    <t>STRONG ARM ROBBERY</t>
-  </si>
-  <si>
-    <t>BARKING DOG</t>
-  </si>
-  <si>
-    <t>GUN SHOTS HEARD</t>
-  </si>
-  <si>
-    <t>ILLEGALLY PARKED VEHICLE</t>
-  </si>
-  <si>
-    <t>UNLOCK VEHICLE</t>
-  </si>
-  <si>
-    <t>K-9 DEMONSTRATION</t>
-  </si>
-  <si>
-    <t>ANIMAL ABUSE</t>
-  </si>
-  <si>
-    <t>DISCHARGING FIREARM</t>
-  </si>
-  <si>
-    <t>ABANDONED PROPERTY</t>
-  </si>
-  <si>
-    <t>DRUG VIOLATION- OTHER</t>
-  </si>
-  <si>
-    <t>FIREWORKS / GUNSHOTS</t>
-  </si>
-  <si>
-    <t>AGGRAVATED ASSAULT WITH SEXUAL MOTIVES</t>
-  </si>
-  <si>
-    <t>LARCENY- OF BICYCLE</t>
-  </si>
-  <si>
-    <t>GRAFFITI VANDALISM</t>
-  </si>
-  <si>
-    <t>EQUIPMENT/PARAPHERNALIA-MANUFACTURING</t>
-  </si>
-  <si>
-    <t>USING FRAUDULENT ID CARD</t>
-  </si>
-  <si>
-    <t>DISPUTE</t>
-  </si>
-  <si>
-    <t>VERBAL DOMESTIC</t>
-  </si>
-  <si>
-    <t>B&amp;E VEHICLE(ATT LARCENY)</t>
-  </si>
-  <si>
-    <t>LARCENY OF MAIL</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS NOISE</t>
-  </si>
-  <si>
-    <t>SELL CRACK COCAINE</t>
-  </si>
-  <si>
-    <t>ATTEMPTED B&amp;E RESIDENCE-FORCE</t>
-  </si>
-  <si>
-    <t>50B ORDER VIOLATION</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE/ASSAULT-NO INJURY</t>
-  </si>
-  <si>
-    <t>WELL BEING CHECK</t>
-  </si>
-  <si>
-    <t>LARCENY OF WATCH</t>
-  </si>
-  <si>
-    <t>DUSTURBANCE</t>
-  </si>
-  <si>
-    <t>OPEN CONTAINER OF MALT BEVERAGE</t>
-  </si>
-  <si>
-    <t>SUICIDAL THREATS</t>
-  </si>
-  <si>
-    <t>MURDER &amp; NONNEGLIENT MANSLAUGHTER</t>
-  </si>
-  <si>
-    <t>COMMUNICATING THREATS</t>
-  </si>
-  <si>
-    <t>PARKING DISPUTE</t>
-  </si>
-  <si>
-    <t>B&amp;E LARCENY FROM VEHICLE</t>
-  </si>
-  <si>
-    <t>GUNSHOTS</t>
-  </si>
-  <si>
     <t>RESISTING ARREST</t>
   </si>
   <si>
@@ -825,136 +825,136 @@
     <t>IMPAIRED DRIVING DWI</t>
   </si>
   <si>
+    <t>PARAPHERNALIA- USING/ EQUIPMENT</t>
+  </si>
+  <si>
+    <t>POSSESSING STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>UNDERAGE CONSUMPTION</t>
+  </si>
+  <si>
     <t>FICT/ALT TITLE/REG CARD/TAG</t>
   </si>
   <si>
-    <t>POSSESSING STOLEN PROPERTY</t>
-  </si>
-  <si>
-    <t>UNDERAGE CONSUMPTION</t>
-  </si>
-  <si>
-    <t>PARAPHERNALIA- USING/ EQUIPMENT</t>
+    <t>NARCOTIC INVESTIGATION</t>
+  </si>
+  <si>
+    <t>UNSAFE MOVEMENT</t>
+  </si>
+  <si>
+    <t>1ST DEGREE TRESPASS</t>
+  </si>
+  <si>
+    <t>DRUNK AND DISRUPTIVE</t>
+  </si>
+  <si>
+    <t>FAILURE TO APPEAR</t>
+  </si>
+  <si>
+    <t>AGGRAVATED ASSAULT</t>
+  </si>
+  <si>
+    <t>FELONY POSSESSION OF COCAINE</t>
+  </si>
+  <si>
+    <t>UNLAWFULLY OBTAINING CREDIT CARD</t>
+  </si>
+  <si>
+    <t>LITTERING</t>
+  </si>
+  <si>
+    <t>NARCOTIC IVIOLATION</t>
+  </si>
+  <si>
+    <t>LOST WALLET</t>
+  </si>
+  <si>
+    <t>POSSESSION OF DRUG PARAPHERNALIA</t>
+  </si>
+  <si>
+    <t>RESIST/DELAY/OBSTRUCT</t>
+  </si>
+  <si>
+    <t>REC/POSS STOLE MV</t>
+  </si>
+  <si>
+    <t>ASSAULT INFLICTING SERIOUS INJURY</t>
+  </si>
+  <si>
+    <t>PHYSICAL SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>SPEEDING</t>
+  </si>
+  <si>
+    <t>FRAUD</t>
+  </si>
+  <si>
+    <t>DRIVING WHILE LICENSE REVOKED</t>
+  </si>
+  <si>
+    <t>POSS OF STOLEN GOODS</t>
+  </si>
+  <si>
+    <t>POSSESSING STOLEN FIREARM</t>
+  </si>
+  <si>
+    <t>PUBLIC CONSUMPTION</t>
   </si>
   <si>
     <t>POSSESSION OF A FIREARM BY FELON</t>
   </si>
   <si>
-    <t>LITTERING</t>
-  </si>
-  <si>
-    <t>NARCOTIC INVESTIGATION</t>
-  </si>
-  <si>
-    <t>AGGRAVATED ASSAULT</t>
-  </si>
-  <si>
-    <t>RESIST/DELAY/OBSTRUCT</t>
-  </si>
-  <si>
-    <t>UNLAWFULLY OBTAINING CREDIT CARD</t>
-  </si>
-  <si>
-    <t>POSSESSING STOLEN FIREARM</t>
+    <t>PROTECTIVE ORDER VIOLATION</t>
+  </si>
+  <si>
+    <t>POSS STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>MISUSE OF PUBLIC SEATING</t>
+  </si>
+  <si>
+    <t>POSSESS FIREARM BY FELON</t>
+  </si>
+  <si>
+    <t>AWDWIKISI</t>
+  </si>
+  <si>
+    <t>WEAPON ON SCHOOL PROPERTY</t>
+  </si>
+  <si>
+    <t>NOL</t>
+  </si>
+  <si>
+    <t>ASSAULT ON LEO</t>
+  </si>
+  <si>
+    <t>INTOXICATED AND DISRUPTIVE</t>
+  </si>
+  <si>
+    <t>RECKLESS DRIVING</t>
   </si>
   <si>
     <t>POSSESSION OF COCAINE</t>
   </si>
   <si>
-    <t>ASSAULT INFLICTING SERIOUS INJURY</t>
-  </si>
-  <si>
-    <t>POSSESSION OF DRUG PARAPHERNALIA</t>
-  </si>
-  <si>
-    <t>UNSAFE MOVEMENT</t>
-  </si>
-  <si>
-    <t>ASSAULT ON LEO</t>
-  </si>
-  <si>
-    <t>FRAUD</t>
-  </si>
-  <si>
-    <t>NARCOTIC IVIOLATION</t>
-  </si>
-  <si>
-    <t>FELONY POSSESSION OF COCAINE</t>
-  </si>
-  <si>
-    <t>PROTECTIVE ORDER VIOLATION</t>
+    <t>OPEN CONTAINER VIOLATION</t>
   </si>
   <si>
     <t>RESIST, DELAY AND OBSTRUCT</t>
   </si>
   <si>
-    <t>WEAPON ON SCHOOL PROPERTY</t>
-  </si>
-  <si>
-    <t>INTOXICATED AND DISRUPTIVE</t>
-  </si>
-  <si>
-    <t>SPEEDING</t>
-  </si>
-  <si>
-    <t>REC/POSS STOLE MV</t>
-  </si>
-  <si>
-    <t>DRUNK AND DISRUPTIVE</t>
+    <t>50B VIOLATION</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE-NON ASSAULTIVE</t>
   </si>
   <si>
     <t>2ND DEGREE TRESPASSING</t>
   </si>
   <si>
-    <t>LOST WALLET</t>
-  </si>
-  <si>
-    <t>MISUSE OF PUBLIC SEATING</t>
-  </si>
-  <si>
-    <t>DRIVING WHILE LICENSE REVOKED</t>
-  </si>
-  <si>
-    <t>OPEN CONTAINER VIOLATION</t>
-  </si>
-  <si>
-    <t>FAILURE TO APPEAR</t>
-  </si>
-  <si>
-    <t>POSS OF STOLEN GOODS</t>
-  </si>
-  <si>
-    <t>1ST DEGREE TRESPASS</t>
-  </si>
-  <si>
-    <t>AWDWIKISI</t>
-  </si>
-  <si>
-    <t>PUBLIC CONSUMPTION</t>
-  </si>
-  <si>
-    <t>NOL</t>
-  </si>
-  <si>
     <t>POSSESS STOLEN PROPERTY</t>
-  </si>
-  <si>
-    <t>PHYSICAL SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE-NON ASSAULTIVE</t>
-  </si>
-  <si>
-    <t>RECKLESS DRIVING</t>
-  </si>
-  <si>
-    <t>50B VIOLATION</t>
-  </si>
-  <si>
-    <t>POSSESS FIREARM BY FELON</t>
-  </si>
-  <si>
-    <t>POSS STOLEN PROPERTY</t>
   </si>
   <si>
     <t>matched</t>
@@ -981,7 +981,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -989,12 +989,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1024,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>95</v>
       </c>
     </row>
@@ -1033,10 +1035,10 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>78</v>
       </c>
     </row>
@@ -1044,10 +1046,10 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>75</v>
       </c>
     </row>
@@ -1055,10 +1057,10 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>68</v>
       </c>
     </row>
@@ -1066,10 +1068,10 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>66</v>
       </c>
     </row>
@@ -1077,10 +1079,10 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>53</v>
       </c>
     </row>
@@ -1088,10 +1090,10 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>52</v>
       </c>
     </row>
@@ -1099,10 +1101,10 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>46</v>
       </c>
     </row>
@@ -1110,10 +1112,10 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>44</v>
       </c>
     </row>
@@ -1121,10 +1123,10 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>42</v>
       </c>
     </row>
@@ -1132,10 +1134,10 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>28</v>
       </c>
     </row>
@@ -1143,10 +1145,10 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>25</v>
       </c>
     </row>
@@ -1154,10 +1156,10 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>24</v>
       </c>
     </row>
@@ -1165,10 +1167,10 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>23</v>
       </c>
     </row>
@@ -1176,10 +1178,10 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1187,10 +1189,10 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1198,10 +1200,10 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1209,10 +1211,10 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1220,10 +1222,10 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1231,10 +1233,10 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1242,10 +1244,10 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1253,10 +1255,10 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1264,10 +1266,10 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1275,10 +1277,10 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1286,10 +1288,10 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1297,10 +1299,10 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1308,10 +1310,10 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1319,10 +1321,10 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1330,10 +1332,10 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1341,10 +1343,10 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1352,10 +1354,10 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1363,10 +1365,10 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1374,10 +1376,10 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1385,10 +1387,10 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1396,10 +1398,10 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1407,10 +1409,10 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1418,10 +1420,10 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1429,10 +1431,10 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1440,10 +1442,10 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1451,10 +1453,10 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1462,10 +1464,10 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1473,10 +1475,10 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1484,10 +1486,10 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1495,10 +1497,10 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1506,10 +1508,10 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1517,10 +1519,10 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1528,10 +1530,10 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1539,10 +1541,10 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1550,10 +1552,10 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1561,10 +1563,10 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1572,10 +1574,10 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1583,10 +1585,10 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
-        <v>0</v>
-      </c>
-      <c r="C53" s="0">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1594,10 +1596,10 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
-        <v>0</v>
-      </c>
-      <c r="C54" s="0">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1605,10 +1607,10 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
-        <v>0</v>
-      </c>
-      <c r="C55" s="0">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1616,10 +1618,10 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1627,10 +1629,10 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1638,10 +1640,10 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
-        <v>0</v>
-      </c>
-      <c r="C58" s="0">
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1649,10 +1651,10 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
-        <v>0</v>
-      </c>
-      <c r="C59" s="0">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1660,10 +1662,10 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
-        <v>0</v>
-      </c>
-      <c r="C60" s="0">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1671,10 +1673,10 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
-        <v>0</v>
-      </c>
-      <c r="C61" s="0">
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1682,10 +1684,10 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
-        <v>0</v>
-      </c>
-      <c r="C62" s="0">
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1693,10 +1695,10 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
-        <v>0</v>
-      </c>
-      <c r="C63" s="0">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1704,10 +1706,10 @@
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
-        <v>0</v>
-      </c>
-      <c r="C64" s="0">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1715,10 +1717,10 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
-        <v>0</v>
-      </c>
-      <c r="C65" s="0">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1726,10 +1728,10 @@
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
-        <v>0</v>
-      </c>
-      <c r="C66" s="0">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1737,10 +1739,10 @@
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
-        <v>0</v>
-      </c>
-      <c r="C67" s="0">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1748,10 +1750,10 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
-        <v>0</v>
-      </c>
-      <c r="C68" s="0">
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1759,10 +1761,10 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
-        <v>0</v>
-      </c>
-      <c r="C69" s="0">
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1770,10 +1772,10 @@
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
-        <v>0</v>
-      </c>
-      <c r="C70" s="0">
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1781,10 +1783,10 @@
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
-        <v>0</v>
-      </c>
-      <c r="C71" s="0">
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1792,10 +1794,10 @@
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
-        <v>0</v>
-      </c>
-      <c r="C72" s="0">
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1803,10 +1805,10 @@
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
-        <v>0</v>
-      </c>
-      <c r="C73" s="0">
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1814,10 +1816,10 @@
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
-        <v>0</v>
-      </c>
-      <c r="C74" s="0">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1825,10 +1827,10 @@
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
-        <v>0</v>
-      </c>
-      <c r="C75" s="0">
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1836,10 +1838,10 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
-        <v>0</v>
-      </c>
-      <c r="C76" s="0">
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1847,10 +1849,10 @@
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
-        <v>0</v>
-      </c>
-      <c r="C77" s="0">
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1858,10 +1860,10 @@
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
-        <v>0</v>
-      </c>
-      <c r="C78" s="0">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1869,10 +1871,10 @@
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
-        <v>0</v>
-      </c>
-      <c r="C79" s="0">
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1880,10 +1882,10 @@
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
-        <v>0</v>
-      </c>
-      <c r="C80" s="0">
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1891,10 +1893,10 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
-        <v>0</v>
-      </c>
-      <c r="C81" s="0">
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1902,10 +1904,10 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
-        <v>0</v>
-      </c>
-      <c r="C82" s="0">
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1913,10 +1915,10 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
-        <v>0</v>
-      </c>
-      <c r="C83" s="0">
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1924,10 +1926,10 @@
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
-        <v>0</v>
-      </c>
-      <c r="C84" s="0">
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1935,10 +1937,10 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
-        <v>0</v>
-      </c>
-      <c r="C85" s="0">
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1946,10 +1948,10 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
-        <v>0</v>
-      </c>
-      <c r="C86" s="0">
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1957,10 +1959,10 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
-        <v>0</v>
-      </c>
-      <c r="C87" s="0">
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1968,10 +1970,10 @@
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
-        <v>0</v>
-      </c>
-      <c r="C88" s="0">
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1979,10 +1981,10 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
-        <v>0</v>
-      </c>
-      <c r="C89" s="0">
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1990,10 +1992,10 @@
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
-        <v>0</v>
-      </c>
-      <c r="C90" s="0">
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2001,10 +2003,10 @@
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
-        <v>0</v>
-      </c>
-      <c r="C91" s="0">
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2012,10 +2014,10 @@
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="0">
-        <v>0</v>
-      </c>
-      <c r="C92" s="0">
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2023,10 +2025,10 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="0">
-        <v>0</v>
-      </c>
-      <c r="C93" s="0">
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2034,10 +2036,10 @@
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="0">
-        <v>0</v>
-      </c>
-      <c r="C94" s="0">
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2045,10 +2047,10 @@
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="0">
-        <v>0</v>
-      </c>
-      <c r="C95" s="0">
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2056,10 +2058,10 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="0">
-        <v>0</v>
-      </c>
-      <c r="C96" s="0">
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2067,10 +2069,10 @@
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="0">
-        <v>0</v>
-      </c>
-      <c r="C97" s="0">
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2078,10 +2080,10 @@
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="0">
-        <v>0</v>
-      </c>
-      <c r="C98" s="0">
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2089,10 +2091,10 @@
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="0">
-        <v>0</v>
-      </c>
-      <c r="C99" s="0">
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2100,10 +2102,10 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="0">
-        <v>0</v>
-      </c>
-      <c r="C100" s="0">
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2111,10 +2113,10 @@
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="0">
-        <v>0</v>
-      </c>
-      <c r="C101" s="0">
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2122,10 +2124,10 @@
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="0">
-        <v>0</v>
-      </c>
-      <c r="C102" s="0">
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2133,10 +2135,10 @@
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="0">
-        <v>0</v>
-      </c>
-      <c r="C103" s="0">
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2144,10 +2146,10 @@
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="0">
-        <v>0</v>
-      </c>
-      <c r="C104" s="0">
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2155,10 +2157,10 @@
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="0">
-        <v>0</v>
-      </c>
-      <c r="C105" s="0">
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2166,10 +2168,10 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="0">
-        <v>0</v>
-      </c>
-      <c r="C106" s="0">
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2177,10 +2179,10 @@
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="0">
-        <v>0</v>
-      </c>
-      <c r="C107" s="0">
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2188,10 +2190,10 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="0">
-        <v>0</v>
-      </c>
-      <c r="C108" s="0">
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2199,10 +2201,10 @@
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="0">
-        <v>0</v>
-      </c>
-      <c r="C109" s="0">
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2210,10 +2212,10 @@
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="0">
-        <v>0</v>
-      </c>
-      <c r="C110" s="0">
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2221,10 +2223,10 @@
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="0">
-        <v>0</v>
-      </c>
-      <c r="C111" s="0">
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2232,10 +2234,10 @@
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="0">
-        <v>0</v>
-      </c>
-      <c r="C112" s="0">
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2243,10 +2245,10 @@
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="0">
-        <v>0</v>
-      </c>
-      <c r="C113" s="0">
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2254,10 +2256,10 @@
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="0">
-        <v>0</v>
-      </c>
-      <c r="C114" s="0">
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2265,10 +2267,10 @@
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="0">
-        <v>0</v>
-      </c>
-      <c r="C115" s="0">
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2276,10 +2278,10 @@
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="0">
-        <v>0</v>
-      </c>
-      <c r="C116" s="0">
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2287,10 +2289,10 @@
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="0">
-        <v>0</v>
-      </c>
-      <c r="C117" s="0">
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2298,10 +2300,10 @@
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="0">
-        <v>0</v>
-      </c>
-      <c r="C118" s="0">
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2309,10 +2311,10 @@
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="0">
-        <v>0</v>
-      </c>
-      <c r="C119" s="0">
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2320,10 +2322,10 @@
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="0">
-        <v>0</v>
-      </c>
-      <c r="C120" s="0">
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2331,10 +2333,10 @@
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="0">
-        <v>0</v>
-      </c>
-      <c r="C121" s="0">
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2342,10 +2344,10 @@
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="0">
-        <v>0</v>
-      </c>
-      <c r="C122" s="0">
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2353,10 +2355,10 @@
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="0">
-        <v>0</v>
-      </c>
-      <c r="C123" s="0">
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2364,10 +2366,10 @@
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="0">
-        <v>0</v>
-      </c>
-      <c r="C124" s="0">
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2375,10 +2377,10 @@
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="0">
-        <v>0</v>
-      </c>
-      <c r="C125" s="0">
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2386,10 +2388,10 @@
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="0">
-        <v>0</v>
-      </c>
-      <c r="C126" s="0">
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2397,10 +2399,10 @@
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="0">
-        <v>0</v>
-      </c>
-      <c r="C127" s="0">
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2408,10 +2410,10 @@
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="0">
-        <v>0</v>
-      </c>
-      <c r="C128" s="0">
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2419,10 +2421,10 @@
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="0">
-        <v>0</v>
-      </c>
-      <c r="C129" s="0">
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2430,10 +2432,10 @@
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="0">
-        <v>0</v>
-      </c>
-      <c r="C130" s="0">
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2441,10 +2443,10 @@
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="0">
-        <v>0</v>
-      </c>
-      <c r="C131" s="0">
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2452,10 +2454,10 @@
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="0">
-        <v>0</v>
-      </c>
-      <c r="C132" s="0">
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2463,10 +2465,10 @@
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="0">
-        <v>0</v>
-      </c>
-      <c r="C133" s="0">
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2474,10 +2476,10 @@
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="0">
-        <v>0</v>
-      </c>
-      <c r="C134" s="0">
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2485,10 +2487,10 @@
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="0">
-        <v>0</v>
-      </c>
-      <c r="C135" s="0">
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2496,10 +2498,10 @@
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="0">
-        <v>0</v>
-      </c>
-      <c r="C136" s="0">
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2507,10 +2509,10 @@
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="0">
-        <v>0</v>
-      </c>
-      <c r="C137" s="0">
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2518,10 +2520,10 @@
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="0">
-        <v>0</v>
-      </c>
-      <c r="C138" s="0">
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2529,10 +2531,10 @@
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="0">
-        <v>0</v>
-      </c>
-      <c r="C139" s="0">
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2540,10 +2542,10 @@
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="0">
-        <v>0</v>
-      </c>
-      <c r="C140" s="0">
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2551,10 +2553,10 @@
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="0">
-        <v>0</v>
-      </c>
-      <c r="C141" s="0">
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2562,10 +2564,10 @@
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="0">
-        <v>0</v>
-      </c>
-      <c r="C142" s="0">
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2573,10 +2575,10 @@
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="0">
-        <v>0</v>
-      </c>
-      <c r="C143" s="0">
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2584,10 +2586,10 @@
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="0">
-        <v>0</v>
-      </c>
-      <c r="C144" s="0">
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2595,10 +2597,10 @@
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="0">
-        <v>0</v>
-      </c>
-      <c r="C145" s="0">
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2606,10 +2608,10 @@
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="0">
-        <v>0</v>
-      </c>
-      <c r="C146" s="0">
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2617,10 +2619,10 @@
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="0">
-        <v>0</v>
-      </c>
-      <c r="C147" s="0">
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2628,10 +2630,10 @@
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="0">
-        <v>0</v>
-      </c>
-      <c r="C148" s="0">
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2639,10 +2641,10 @@
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="0">
-        <v>0</v>
-      </c>
-      <c r="C149" s="0">
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2650,10 +2652,10 @@
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="0">
-        <v>0</v>
-      </c>
-      <c r="C150" s="0">
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2661,10 +2663,10 @@
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="0">
-        <v>0</v>
-      </c>
-      <c r="C151" s="0">
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2672,10 +2674,10 @@
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="0">
-        <v>0</v>
-      </c>
-      <c r="C152" s="0">
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2683,10 +2685,10 @@
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="0">
-        <v>0</v>
-      </c>
-      <c r="C153" s="0">
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2694,10 +2696,10 @@
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="0">
-        <v>0</v>
-      </c>
-      <c r="C154" s="0">
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2705,10 +2707,10 @@
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="0">
-        <v>0</v>
-      </c>
-      <c r="C155" s="0">
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2716,10 +2718,10 @@
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="0">
-        <v>0</v>
-      </c>
-      <c r="C156" s="0">
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2727,10 +2729,10 @@
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="0">
-        <v>0</v>
-      </c>
-      <c r="C157" s="0">
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2738,10 +2740,10 @@
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="0">
-        <v>0</v>
-      </c>
-      <c r="C158" s="0">
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2749,10 +2751,10 @@
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="0">
-        <v>0</v>
-      </c>
-      <c r="C159" s="0">
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2760,10 +2762,10 @@
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="0">
-        <v>0</v>
-      </c>
-      <c r="C160" s="0">
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2771,10 +2773,10 @@
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="0">
-        <v>0</v>
-      </c>
-      <c r="C161" s="0">
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2782,10 +2784,10 @@
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="0">
-        <v>0</v>
-      </c>
-      <c r="C162" s="0">
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2793,10 +2795,10 @@
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="0">
-        <v>0</v>
-      </c>
-      <c r="C163" s="0">
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2804,10 +2806,10 @@
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="0">
-        <v>0</v>
-      </c>
-      <c r="C164" s="0">
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2815,10 +2817,10 @@
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="0">
-        <v>0</v>
-      </c>
-      <c r="C165" s="0">
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2826,10 +2828,10 @@
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="0">
-        <v>0</v>
-      </c>
-      <c r="C166" s="0">
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2837,10 +2839,10 @@
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="0">
-        <v>0</v>
-      </c>
-      <c r="C167" s="0">
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2848,10 +2850,10 @@
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="0">
-        <v>0</v>
-      </c>
-      <c r="C168" s="0">
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2859,10 +2861,10 @@
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="0">
-        <v>0</v>
-      </c>
-      <c r="C169" s="0">
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2870,10 +2872,10 @@
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="0">
-        <v>0</v>
-      </c>
-      <c r="C170" s="0">
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2881,10 +2883,10 @@
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="0">
-        <v>0</v>
-      </c>
-      <c r="C171" s="0">
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2892,10 +2894,10 @@
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="0">
-        <v>0</v>
-      </c>
-      <c r="C172" s="0">
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2903,10 +2905,10 @@
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="0">
-        <v>0</v>
-      </c>
-      <c r="C173" s="0">
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2914,10 +2916,10 @@
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="0">
-        <v>0</v>
-      </c>
-      <c r="C174" s="0">
+      <c r="B174" s="1">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2925,10 +2927,10 @@
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="0">
-        <v>0</v>
-      </c>
-      <c r="C175" s="0">
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2936,10 +2938,10 @@
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="0">
-        <v>0</v>
-      </c>
-      <c r="C176" s="0">
+      <c r="B176" s="1">
+        <v>0</v>
+      </c>
+      <c r="C176" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2947,10 +2949,10 @@
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="0">
-        <v>0</v>
-      </c>
-      <c r="C177" s="0">
+      <c r="B177" s="1">
+        <v>0</v>
+      </c>
+      <c r="C177" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2958,10 +2960,10 @@
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="0">
-        <v>0</v>
-      </c>
-      <c r="C178" s="0">
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="C178" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2969,10 +2971,10 @@
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="0">
-        <v>0</v>
-      </c>
-      <c r="C179" s="0">
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2980,10 +2982,10 @@
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="0">
-        <v>0</v>
-      </c>
-      <c r="C180" s="0">
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2991,10 +2993,10 @@
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="0">
-        <v>0</v>
-      </c>
-      <c r="C181" s="0">
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3002,10 +3004,10 @@
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="0">
-        <v>0</v>
-      </c>
-      <c r="C182" s="0">
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3013,10 +3015,10 @@
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="0">
-        <v>0</v>
-      </c>
-      <c r="C183" s="0">
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3024,10 +3026,10 @@
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="0">
-        <v>0</v>
-      </c>
-      <c r="C184" s="0">
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3035,10 +3037,10 @@
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="0">
-        <v>0</v>
-      </c>
-      <c r="C185" s="0">
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3046,10 +3048,10 @@
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="0">
-        <v>0</v>
-      </c>
-      <c r="C186" s="0">
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3057,10 +3059,10 @@
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="0">
-        <v>0</v>
-      </c>
-      <c r="C187" s="0">
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3068,10 +3070,10 @@
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="0">
-        <v>0</v>
-      </c>
-      <c r="C188" s="0">
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3079,10 +3081,10 @@
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="0">
-        <v>0</v>
-      </c>
-      <c r="C189" s="0">
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3090,10 +3092,10 @@
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="0">
-        <v>0</v>
-      </c>
-      <c r="C190" s="0">
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3101,10 +3103,10 @@
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="0">
-        <v>0</v>
-      </c>
-      <c r="C191" s="0">
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+      <c r="C191" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3112,10 +3114,10 @@
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="0">
-        <v>0</v>
-      </c>
-      <c r="C192" s="0">
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3123,10 +3125,10 @@
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="0">
-        <v>0</v>
-      </c>
-      <c r="C193" s="0">
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+      <c r="C193" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3134,10 +3136,10 @@
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="0">
-        <v>0</v>
-      </c>
-      <c r="C194" s="0">
+      <c r="B194" s="1">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3145,10 +3147,10 @@
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="0">
-        <v>0</v>
-      </c>
-      <c r="C195" s="0">
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3156,10 +3158,10 @@
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="0">
-        <v>0</v>
-      </c>
-      <c r="C196" s="0">
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3167,10 +3169,10 @@
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="0">
-        <v>0</v>
-      </c>
-      <c r="C197" s="0">
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3178,10 +3180,10 @@
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="0">
-        <v>0</v>
-      </c>
-      <c r="C198" s="0">
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3189,10 +3191,10 @@
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="0">
-        <v>0</v>
-      </c>
-      <c r="C199" s="0">
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3200,10 +3202,10 @@
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="0">
-        <v>0</v>
-      </c>
-      <c r="C200" s="0">
+      <c r="B200" s="1">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3211,10 +3213,10 @@
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="0">
-        <v>0</v>
-      </c>
-      <c r="C201" s="0">
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3222,10 +3224,10 @@
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="0">
-        <v>0</v>
-      </c>
-      <c r="C202" s="0">
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3233,10 +3235,10 @@
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="0">
-        <v>0</v>
-      </c>
-      <c r="C203" s="0">
+      <c r="B203" s="1">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3244,10 +3246,10 @@
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="0">
-        <v>0</v>
-      </c>
-      <c r="C204" s="0">
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3255,10 +3257,10 @@
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="0">
-        <v>0</v>
-      </c>
-      <c r="C205" s="0">
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+      <c r="C205" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3266,10 +3268,10 @@
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="0">
-        <v>0</v>
-      </c>
-      <c r="C206" s="0">
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+      <c r="C206" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3277,10 +3279,10 @@
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="0">
-        <v>0</v>
-      </c>
-      <c r="C207" s="0">
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3288,10 +3290,10 @@
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="0">
-        <v>0</v>
-      </c>
-      <c r="C208" s="0">
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3299,10 +3301,10 @@
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="0">
-        <v>0</v>
-      </c>
-      <c r="C209" s="0">
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3310,10 +3312,10 @@
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="0">
-        <v>0</v>
-      </c>
-      <c r="C210" s="0">
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3321,10 +3323,10 @@
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="0">
-        <v>0</v>
-      </c>
-      <c r="C211" s="0">
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3332,10 +3334,10 @@
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="0">
-        <v>0</v>
-      </c>
-      <c r="C212" s="0">
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+      <c r="C212" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3343,10 +3345,10 @@
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="0">
-        <v>0</v>
-      </c>
-      <c r="C213" s="0">
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+      <c r="C213" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3354,10 +3356,10 @@
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="0">
-        <v>0</v>
-      </c>
-      <c r="C214" s="0">
+      <c r="B214" s="1">
+        <v>0</v>
+      </c>
+      <c r="C214" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3365,10 +3367,10 @@
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="0">
-        <v>0</v>
-      </c>
-      <c r="C215" s="0">
+      <c r="B215" s="1">
+        <v>0</v>
+      </c>
+      <c r="C215" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3376,10 +3378,10 @@
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="0">
-        <v>0</v>
-      </c>
-      <c r="C216" s="0">
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3387,10 +3389,10 @@
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="0">
-        <v>0</v>
-      </c>
-      <c r="C217" s="0">
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3398,10 +3400,10 @@
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="0">
-        <v>0</v>
-      </c>
-      <c r="C218" s="0">
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3409,10 +3411,10 @@
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="0">
-        <v>0</v>
-      </c>
-      <c r="C219" s="0">
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3420,10 +3422,10 @@
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="0">
-        <v>0</v>
-      </c>
-      <c r="C220" s="0">
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+      <c r="C220" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3431,10 +3433,10 @@
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="0">
-        <v>0</v>
-      </c>
-      <c r="C221" s="0">
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3442,10 +3444,10 @@
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="0">
-        <v>0</v>
-      </c>
-      <c r="C222" s="0">
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="C222" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3453,10 +3455,10 @@
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="0">
-        <v>0</v>
-      </c>
-      <c r="C223" s="0">
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="C223" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3464,10 +3466,10 @@
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="0">
-        <v>0</v>
-      </c>
-      <c r="C224" s="0">
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+      <c r="C224" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3475,10 +3477,10 @@
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="0">
-        <v>0</v>
-      </c>
-      <c r="C225" s="0">
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3486,10 +3488,10 @@
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="0">
-        <v>0</v>
-      </c>
-      <c r="C226" s="0">
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3497,10 +3499,10 @@
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="0">
-        <v>0</v>
-      </c>
-      <c r="C227" s="0">
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+      <c r="C227" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3508,10 +3510,10 @@
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="0">
-        <v>0</v>
-      </c>
-      <c r="C228" s="0">
+      <c r="B228" s="1">
+        <v>0</v>
+      </c>
+      <c r="C228" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3519,10 +3521,10 @@
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="0">
-        <v>0</v>
-      </c>
-      <c r="C229" s="0">
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+      <c r="C229" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3530,10 +3532,10 @@
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="0">
-        <v>0</v>
-      </c>
-      <c r="C230" s="0">
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3541,10 +3543,10 @@
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="0">
-        <v>0</v>
-      </c>
-      <c r="C231" s="0">
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="C231" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3552,10 +3554,10 @@
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="0">
-        <v>0</v>
-      </c>
-      <c r="C232" s="0">
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3563,10 +3565,10 @@
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="0">
-        <v>0</v>
-      </c>
-      <c r="C233" s="0">
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="C233" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3574,10 +3576,10 @@
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="0">
-        <v>0</v>
-      </c>
-      <c r="C234" s="0">
+      <c r="B234" s="1">
+        <v>0</v>
+      </c>
+      <c r="C234" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3585,10 +3587,10 @@
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="0">
-        <v>0</v>
-      </c>
-      <c r="C235" s="0">
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3596,10 +3598,10 @@
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="0">
-        <v>0</v>
-      </c>
-      <c r="C236" s="0">
+      <c r="B236" s="1">
+        <v>0</v>
+      </c>
+      <c r="C236" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3607,10 +3609,10 @@
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="0">
-        <v>0</v>
-      </c>
-      <c r="C237" s="0">
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3618,10 +3620,10 @@
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="0">
-        <v>0</v>
-      </c>
-      <c r="C238" s="0">
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+      <c r="C238" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3629,10 +3631,10 @@
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="0">
-        <v>0</v>
-      </c>
-      <c r="C239" s="0">
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+      <c r="C239" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3640,10 +3642,10 @@
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="0">
-        <v>0</v>
-      </c>
-      <c r="C240" s="0">
+      <c r="B240" s="1">
+        <v>0</v>
+      </c>
+      <c r="C240" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3651,10 +3653,10 @@
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="0">
-        <v>0</v>
-      </c>
-      <c r="C241" s="0">
+      <c r="B241" s="1">
+        <v>0</v>
+      </c>
+      <c r="C241" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3662,10 +3664,10 @@
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="0">
-        <v>0</v>
-      </c>
-      <c r="C242" s="0">
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+      <c r="C242" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3673,10 +3675,10 @@
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="0">
-        <v>0</v>
-      </c>
-      <c r="C243" s="0">
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+      <c r="C243" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3684,10 +3686,10 @@
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="0">
-        <v>0</v>
-      </c>
-      <c r="C244" s="0">
+      <c r="B244" s="1">
+        <v>0</v>
+      </c>
+      <c r="C244" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3695,10 +3697,10 @@
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="0">
-        <v>0</v>
-      </c>
-      <c r="C245" s="0">
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
+      <c r="C245" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3706,10 +3708,10 @@
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="0">
-        <v>0</v>
-      </c>
-      <c r="C246" s="0">
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3717,10 +3719,10 @@
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="0">
-        <v>0</v>
-      </c>
-      <c r="C247" s="0">
+      <c r="B247" s="1">
+        <v>0</v>
+      </c>
+      <c r="C247" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3728,10 +3730,10 @@
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="0">
-        <v>0</v>
-      </c>
-      <c r="C248" s="0">
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+      <c r="C248" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3739,10 +3741,10 @@
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="0">
-        <v>0</v>
-      </c>
-      <c r="C249" s="0">
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
+      <c r="C249" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3750,10 +3752,10 @@
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="0">
-        <v>0</v>
-      </c>
-      <c r="C250" s="0">
+      <c r="B250" s="1">
+        <v>0</v>
+      </c>
+      <c r="C250" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3761,10 +3763,10 @@
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="0">
-        <v>0</v>
-      </c>
-      <c r="C251" s="0">
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
+      <c r="C251" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3772,10 +3774,10 @@
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="0">
-        <v>0</v>
-      </c>
-      <c r="C252" s="0">
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+      <c r="C252" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3783,10 +3785,10 @@
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="0">
-        <v>0</v>
-      </c>
-      <c r="C253" s="0">
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+      <c r="C253" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3794,10 +3796,10 @@
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="0">
-        <v>0</v>
-      </c>
-      <c r="C254" s="0">
+      <c r="B254" s="1">
+        <v>0</v>
+      </c>
+      <c r="C254" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3805,10 +3807,10 @@
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="0">
-        <v>0</v>
-      </c>
-      <c r="C255" s="0">
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+      <c r="C255" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3816,10 +3818,10 @@
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="0">
-        <v>0</v>
-      </c>
-      <c r="C256" s="0">
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+      <c r="C256" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3827,10 +3829,10 @@
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="0">
-        <v>0</v>
-      </c>
-      <c r="C257" s="0">
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3838,10 +3840,10 @@
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="0">
-        <v>0</v>
-      </c>
-      <c r="C258" s="0">
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+      <c r="C258" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3849,10 +3851,10 @@
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="0">
-        <v>0</v>
-      </c>
-      <c r="C259" s="0">
+      <c r="B259" s="1">
+        <v>0</v>
+      </c>
+      <c r="C259" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3860,10 +3862,10 @@
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="0">
-        <v>0</v>
-      </c>
-      <c r="C260" s="0">
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+      <c r="C260" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3871,10 +3873,10 @@
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="0">
-        <v>0</v>
-      </c>
-      <c r="C261" s="0">
+      <c r="B261" s="1">
+        <v>0</v>
+      </c>
+      <c r="C261" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3882,10 +3884,10 @@
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="0">
-        <v>0</v>
-      </c>
-      <c r="C262" s="0">
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3893,10 +3895,10 @@
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="0">
-        <v>0</v>
-      </c>
-      <c r="C263" s="0">
+      <c r="B263" s="1">
+        <v>0</v>
+      </c>
+      <c r="C263" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3904,10 +3906,10 @@
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="0">
-        <v>0</v>
-      </c>
-      <c r="C264" s="0">
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3915,10 +3917,10 @@
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="0">
-        <v>0</v>
-      </c>
-      <c r="C265" s="0">
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3926,10 +3928,10 @@
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="0">
-        <v>0</v>
-      </c>
-      <c r="C266" s="0">
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="C266" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3937,21 +3939,21 @@
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="0">
-        <v>0</v>
-      </c>
-      <c r="C267" s="0">
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>71</v>
-      </c>
-      <c r="B268" s="0">
-        <v>1</v>
-      </c>
-      <c r="C268" s="0">
+        <v>70</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3959,186 +3961,186 @@
       <c r="A269" t="s">
         <v>8</v>
       </c>
-      <c r="B269" s="0">
-        <v>1</v>
-      </c>
-      <c r="C269" s="0">
+      <c r="B269" s="1">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>63</v>
-      </c>
-      <c r="B270" s="0">
-        <v>1</v>
-      </c>
-      <c r="C270" s="0">
+        <v>58</v>
+      </c>
+      <c r="B270" s="1">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" s="0">
-        <v>1</v>
-      </c>
-      <c r="C271" s="0">
+        <v>267</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>267</v>
-      </c>
-      <c r="B272" s="0">
-        <v>1</v>
-      </c>
-      <c r="C272" s="0">
+        <v>6</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>40</v>
-      </c>
-      <c r="B273" s="0">
-        <v>1</v>
-      </c>
-      <c r="C273" s="0">
+        <v>47</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>136</v>
-      </c>
-      <c r="B274" s="0">
-        <v>1</v>
-      </c>
-      <c r="C274" s="0">
+        <v>41</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>52</v>
-      </c>
-      <c r="B275" s="0">
-        <v>1</v>
-      </c>
-      <c r="C275" s="0">
+        <v>33</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>33</v>
-      </c>
-      <c r="B276" s="0">
-        <v>1</v>
-      </c>
-      <c r="C276" s="0">
+        <v>207</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>2</v>
-      </c>
-      <c r="B277" s="0">
-        <v>1</v>
-      </c>
-      <c r="C277" s="0">
+        <v>7</v>
+      </c>
+      <c r="B277" s="1">
+        <v>1</v>
+      </c>
+      <c r="C277" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>7</v>
-      </c>
-      <c r="B278" s="0">
-        <v>1</v>
-      </c>
-      <c r="C278" s="0">
+        <v>2</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>162</v>
-      </c>
-      <c r="B279" s="0">
-        <v>1</v>
-      </c>
-      <c r="C279" s="0">
+        <v>157</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" s="0">
-        <v>1</v>
-      </c>
-      <c r="C280" s="0">
+        <v>11</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>11</v>
-      </c>
-      <c r="B281" s="0">
-        <v>1</v>
-      </c>
-      <c r="C281" s="0">
+        <v>159</v>
+      </c>
+      <c r="B281" s="1">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>10</v>
-      </c>
-      <c r="B282" s="0">
-        <v>1</v>
-      </c>
-      <c r="C282" s="0">
+        <v>9</v>
+      </c>
+      <c r="B282" s="1">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>255</v>
-      </c>
-      <c r="B283" s="0">
-        <v>1</v>
-      </c>
-      <c r="C283" s="0">
+        <v>68</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>9</v>
-      </c>
-      <c r="B284" s="0">
-        <v>1</v>
-      </c>
-      <c r="C284" s="0">
+        <v>3</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>79</v>
-      </c>
-      <c r="B285" s="0">
-        <v>1</v>
-      </c>
-      <c r="C285" s="0">
+        <v>10</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4146,197 +4148,197 @@
       <c r="A286" t="s">
         <v>268</v>
       </c>
-      <c r="B286" s="0">
-        <v>1</v>
-      </c>
-      <c r="C286" s="0">
+      <c r="B286" s="1">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>269</v>
-      </c>
-      <c r="B287" s="0">
-        <v>1</v>
-      </c>
-      <c r="C287" s="0">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1">
+        <v>1</v>
+      </c>
+      <c r="C287" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>27</v>
-      </c>
-      <c r="B288" s="0">
-        <v>1</v>
-      </c>
-      <c r="C288" s="0">
+        <v>170</v>
+      </c>
+      <c r="B288" s="1">
+        <v>1</v>
+      </c>
+      <c r="C288" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>270</v>
-      </c>
-      <c r="B289" s="0">
-        <v>1</v>
-      </c>
-      <c r="C289" s="0">
+        <v>153</v>
+      </c>
+      <c r="B289" s="1">
+        <v>1</v>
+      </c>
+      <c r="C289" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>271</v>
-      </c>
-      <c r="B290" s="0">
-        <v>1</v>
-      </c>
-      <c r="C290" s="0">
+        <v>269</v>
+      </c>
+      <c r="B290" s="1">
+        <v>1</v>
+      </c>
+      <c r="C290" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>60</v>
-      </c>
-      <c r="B291" s="0">
-        <v>1</v>
-      </c>
-      <c r="C291" s="0">
+        <v>73</v>
+      </c>
+      <c r="B291" s="1">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>187</v>
-      </c>
-      <c r="B292" s="0">
-        <v>1</v>
-      </c>
-      <c r="C292" s="0">
+        <v>1</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>4</v>
-      </c>
-      <c r="B293" s="0">
-        <v>1</v>
-      </c>
-      <c r="C293" s="0">
+        <v>270</v>
+      </c>
+      <c r="B293" s="1">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1</v>
-      </c>
-      <c r="B294" s="0">
-        <v>1</v>
-      </c>
-      <c r="C294" s="0">
+        <v>26</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>272</v>
-      </c>
-      <c r="B295" s="0">
-        <v>1</v>
-      </c>
-      <c r="C295" s="0">
+        <v>57</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>36</v>
-      </c>
-      <c r="B296" s="0">
-        <v>1</v>
-      </c>
-      <c r="C296" s="0">
+        <v>34</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1</v>
+      </c>
+      <c r="C296" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>12</v>
-      </c>
-      <c r="B297" s="0">
-        <v>1</v>
-      </c>
-      <c r="C297" s="0">
+        <v>4</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>5</v>
-      </c>
-      <c r="B298" s="0">
-        <v>1</v>
-      </c>
-      <c r="C298" s="0">
+        <v>271</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1</v>
+      </c>
+      <c r="C298" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>84</v>
-      </c>
-      <c r="B299" s="0">
-        <v>1</v>
-      </c>
-      <c r="C299" s="0">
+        <v>40</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1</v>
+      </c>
+      <c r="C299" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>260</v>
-      </c>
-      <c r="B300" s="0">
-        <v>1</v>
-      </c>
-      <c r="C300" s="0">
+        <v>12</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>104</v>
-      </c>
-      <c r="B301" s="0">
-        <v>1</v>
-      </c>
-      <c r="C301" s="0">
+        <v>101</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>273</v>
-      </c>
-      <c r="B302" s="0">
-        <v>1</v>
-      </c>
-      <c r="C302" s="0">
+        <v>272</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>41</v>
-      </c>
-      <c r="B303" s="0">
-        <v>1</v>
-      </c>
-      <c r="C303" s="0">
+        <v>273</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4344,142 +4346,142 @@
       <c r="A304" t="s">
         <v>274</v>
       </c>
-      <c r="B304" s="0">
-        <v>1</v>
-      </c>
-      <c r="C304" s="0">
+      <c r="B304" s="1">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>68</v>
-      </c>
-      <c r="B305" s="0">
-        <v>1</v>
-      </c>
-      <c r="C305" s="0">
+        <v>275</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>74</v>
-      </c>
-      <c r="B306" s="0">
-        <v>1</v>
-      </c>
-      <c r="C306" s="0">
+        <v>276</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>275</v>
-      </c>
-      <c r="B307" s="0">
-        <v>1</v>
-      </c>
-      <c r="C307" s="0">
+        <v>201</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>123</v>
-      </c>
-      <c r="B308" s="0">
-        <v>1</v>
-      </c>
-      <c r="C308" s="0">
+        <v>277</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>263</v>
-      </c>
-      <c r="B309" s="0">
-        <v>1</v>
-      </c>
-      <c r="C309" s="0">
+        <v>278</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>276</v>
-      </c>
-      <c r="B310" s="0">
-        <v>1</v>
-      </c>
-      <c r="C310" s="0">
+        <v>77</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>277</v>
-      </c>
-      <c r="B311" s="0">
-        <v>1</v>
-      </c>
-      <c r="C311" s="0">
+        <v>103</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>278</v>
-      </c>
-      <c r="B312" s="0">
-        <v>1</v>
-      </c>
-      <c r="C312" s="0">
+        <v>81</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>279</v>
-      </c>
-      <c r="B313" s="0">
-        <v>1</v>
-      </c>
-      <c r="C313" s="0">
+        <v>95</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>280</v>
-      </c>
-      <c r="B314" s="0">
-        <v>1</v>
-      </c>
-      <c r="C314" s="0">
+        <v>279</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>281</v>
-      </c>
-      <c r="B315" s="0">
-        <v>1</v>
-      </c>
-      <c r="C315" s="0">
+        <v>280</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>39</v>
-      </c>
-      <c r="B316" s="0">
-        <v>1</v>
-      </c>
-      <c r="C316" s="0">
+        <v>281</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1</v>
+      </c>
+      <c r="C316" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4487,560 +4489,560 @@
       <c r="A317" t="s">
         <v>282</v>
       </c>
-      <c r="B317" s="0">
-        <v>1</v>
-      </c>
-      <c r="C317" s="0">
+      <c r="B317" s="1">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>283</v>
-      </c>
-      <c r="B318" s="0">
-        <v>1</v>
-      </c>
-      <c r="C318" s="0">
+        <v>161</v>
+      </c>
+      <c r="B318" s="1">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>284</v>
-      </c>
-      <c r="B319" s="0">
-        <v>1</v>
-      </c>
-      <c r="C319" s="0">
+        <v>241</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>92</v>
-      </c>
-      <c r="B320" s="0">
-        <v>1</v>
-      </c>
-      <c r="C320" s="0">
+        <v>36</v>
+      </c>
+      <c r="B320" s="1">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>285</v>
-      </c>
-      <c r="B321" s="0">
-        <v>1</v>
-      </c>
-      <c r="C321" s="0">
+        <v>20</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>91</v>
-      </c>
-      <c r="B322" s="0">
-        <v>1</v>
-      </c>
-      <c r="C322" s="0">
+        <v>283</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1</v>
+      </c>
+      <c r="C322" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>286</v>
-      </c>
-      <c r="B323" s="0">
-        <v>1</v>
-      </c>
-      <c r="C323" s="0">
+        <v>284</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>287</v>
-      </c>
-      <c r="B324" s="0">
-        <v>1</v>
-      </c>
-      <c r="C324" s="0">
+        <v>285</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>288</v>
-      </c>
-      <c r="B325" s="0">
-        <v>1</v>
-      </c>
-      <c r="C325" s="0">
+        <v>286</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>109</v>
-      </c>
-      <c r="B326" s="0">
-        <v>1</v>
-      </c>
-      <c r="C326" s="0">
+        <v>287</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>289</v>
-      </c>
-      <c r="B327" s="0">
-        <v>1</v>
-      </c>
-      <c r="C327" s="0">
+        <v>288</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1</v>
+      </c>
+      <c r="C327" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>290</v>
-      </c>
-      <c r="B328" s="0">
-        <v>1</v>
-      </c>
-      <c r="C328" s="0">
+        <v>289</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1</v>
+      </c>
+      <c r="C328" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>291</v>
-      </c>
-      <c r="B329" s="0">
-        <v>1</v>
-      </c>
-      <c r="C329" s="0">
+        <v>290</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>292</v>
-      </c>
-      <c r="B330" s="0">
-        <v>1</v>
-      </c>
-      <c r="C330" s="0">
+        <v>72</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1</v>
+      </c>
+      <c r="C330" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>293</v>
-      </c>
-      <c r="B331" s="0">
-        <v>1</v>
-      </c>
-      <c r="C331" s="0">
+        <v>291</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>294</v>
-      </c>
-      <c r="B332" s="0">
-        <v>1</v>
-      </c>
-      <c r="C332" s="0">
+        <v>16</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>247</v>
-      </c>
-      <c r="B333" s="0">
-        <v>1</v>
-      </c>
-      <c r="C333" s="0">
+        <v>50</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>295</v>
-      </c>
-      <c r="B334" s="0">
-        <v>1</v>
-      </c>
-      <c r="C334" s="0">
+        <v>100</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1</v>
+      </c>
+      <c r="C334" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>165</v>
-      </c>
-      <c r="B335" s="0">
-        <v>1</v>
-      </c>
-      <c r="C335" s="0">
+        <v>292</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>296</v>
-      </c>
-      <c r="B336" s="0">
-        <v>1</v>
-      </c>
-      <c r="C336" s="0">
+        <v>293</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>297</v>
-      </c>
-      <c r="B337" s="0">
-        <v>1</v>
-      </c>
-      <c r="C337" s="0">
+        <v>108</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>66</v>
-      </c>
-      <c r="B338" s="0">
-        <v>1</v>
-      </c>
-      <c r="C338" s="0">
+        <v>160</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>298</v>
-      </c>
-      <c r="B339" s="0">
-        <v>1</v>
-      </c>
-      <c r="C339" s="0">
+        <v>229</v>
+      </c>
+      <c r="B339" s="1">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>299</v>
-      </c>
-      <c r="B340" s="0">
-        <v>1</v>
-      </c>
-      <c r="C340" s="0">
+        <v>294</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>81</v>
-      </c>
-      <c r="B341" s="0">
-        <v>1</v>
-      </c>
-      <c r="C341" s="0">
+        <v>15</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>300</v>
-      </c>
-      <c r="B342" s="0">
-        <v>1</v>
-      </c>
-      <c r="C342" s="0">
+        <v>295</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1</v>
+      </c>
+      <c r="C342" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>301</v>
-      </c>
-      <c r="B343" s="0">
-        <v>1</v>
-      </c>
-      <c r="C343" s="0">
+        <v>296</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1</v>
+      </c>
+      <c r="C343" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>302</v>
-      </c>
-      <c r="B344" s="0">
-        <v>1</v>
-      </c>
-      <c r="C344" s="0">
+        <v>255</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1</v>
+      </c>
+      <c r="C344" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>303</v>
-      </c>
-      <c r="B345" s="0">
-        <v>1</v>
-      </c>
-      <c r="C345" s="0">
+        <v>297</v>
+      </c>
+      <c r="B345" s="1">
+        <v>1</v>
+      </c>
+      <c r="C345" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>304</v>
-      </c>
-      <c r="B346" s="0">
-        <v>1</v>
-      </c>
-      <c r="C346" s="0">
+        <v>298</v>
+      </c>
+      <c r="B346" s="1">
+        <v>1</v>
+      </c>
+      <c r="C346" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>105</v>
-      </c>
-      <c r="B347" s="0">
-        <v>1</v>
-      </c>
-      <c r="C347" s="0">
+        <v>299</v>
+      </c>
+      <c r="B347" s="1">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>305</v>
-      </c>
-      <c r="B348" s="0">
-        <v>1</v>
-      </c>
-      <c r="C348" s="0">
+        <v>61</v>
+      </c>
+      <c r="B348" s="1">
+        <v>1</v>
+      </c>
+      <c r="C348" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>166</v>
-      </c>
-      <c r="B349" s="0">
-        <v>1</v>
-      </c>
-      <c r="C349" s="0">
+        <v>300</v>
+      </c>
+      <c r="B349" s="1">
+        <v>1</v>
+      </c>
+      <c r="C349" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>306</v>
-      </c>
-      <c r="B350" s="0">
-        <v>1</v>
-      </c>
-      <c r="C350" s="0">
+        <v>66</v>
+      </c>
+      <c r="B350" s="1">
+        <v>1</v>
+      </c>
+      <c r="C350" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>307</v>
-      </c>
-      <c r="B351" s="0">
-        <v>1</v>
-      </c>
-      <c r="C351" s="0">
+        <v>301</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1</v>
+      </c>
+      <c r="C351" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>308</v>
-      </c>
-      <c r="B352" s="0">
-        <v>1</v>
-      </c>
-      <c r="C352" s="0">
+        <v>302</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1</v>
+      </c>
+      <c r="C352" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>309</v>
-      </c>
-      <c r="B353" s="0">
-        <v>1</v>
-      </c>
-      <c r="C353" s="0">
+        <v>303</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1</v>
+      </c>
+      <c r="C353" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>15</v>
-      </c>
-      <c r="B354" s="0">
-        <v>1</v>
-      </c>
-      <c r="C354" s="0">
+        <v>137</v>
+      </c>
+      <c r="B354" s="1">
+        <v>1</v>
+      </c>
+      <c r="C354" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>22</v>
-      </c>
-      <c r="B355" s="0">
-        <v>1</v>
-      </c>
-      <c r="C355" s="0">
+        <v>304</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1</v>
+      </c>
+      <c r="C355" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>107</v>
-      </c>
-      <c r="B356" s="0">
-        <v>1</v>
-      </c>
-      <c r="C356" s="0">
+        <v>305</v>
+      </c>
+      <c r="B356" s="1">
+        <v>1</v>
+      </c>
+      <c r="C356" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>229</v>
-      </c>
-      <c r="B357" s="0">
-        <v>1</v>
-      </c>
-      <c r="C357" s="0">
+        <v>112</v>
+      </c>
+      <c r="B357" s="1">
+        <v>1</v>
+      </c>
+      <c r="C357" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>62</v>
-      </c>
-      <c r="B358" s="0">
-        <v>1</v>
-      </c>
-      <c r="C358" s="0">
+        <v>306</v>
+      </c>
+      <c r="B358" s="1">
+        <v>1</v>
+      </c>
+      <c r="C358" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>34</v>
-      </c>
-      <c r="B359" s="0">
-        <v>1</v>
-      </c>
-      <c r="C359" s="0">
+        <v>74</v>
+      </c>
+      <c r="B359" s="1">
+        <v>1</v>
+      </c>
+      <c r="C359" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>310</v>
-      </c>
-      <c r="B360" s="0">
-        <v>1</v>
-      </c>
-      <c r="C360" s="0">
+        <v>307</v>
+      </c>
+      <c r="B360" s="1">
+        <v>1</v>
+      </c>
+      <c r="C360" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>67</v>
-      </c>
-      <c r="B361" s="0">
-        <v>1</v>
-      </c>
-      <c r="C361" s="0">
+        <v>308</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1</v>
+      </c>
+      <c r="C361" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>311</v>
-      </c>
-      <c r="B362" s="0">
-        <v>1</v>
-      </c>
-      <c r="C362" s="0">
+        <v>309</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1</v>
+      </c>
+      <c r="C362" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>312</v>
-      </c>
-      <c r="B363" s="0">
-        <v>1</v>
-      </c>
-      <c r="C363" s="0">
+        <v>38</v>
+      </c>
+      <c r="B363" s="1">
+        <v>1</v>
+      </c>
+      <c r="C363" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>313</v>
-      </c>
-      <c r="B364" s="0">
-        <v>1</v>
-      </c>
-      <c r="C364" s="0">
+        <v>310</v>
+      </c>
+      <c r="B364" s="1">
+        <v>1</v>
+      </c>
+      <c r="C364" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>19</v>
-      </c>
-      <c r="B365" s="0">
-        <v>1</v>
-      </c>
-      <c r="C365" s="0">
+        <v>311</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1</v>
+      </c>
+      <c r="C365" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>47</v>
-      </c>
-      <c r="B366" s="0">
-        <v>1</v>
-      </c>
-      <c r="C366" s="0">
+        <v>312</v>
+      </c>
+      <c r="B366" s="1">
+        <v>1</v>
+      </c>
+      <c r="C366" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>148</v>
-      </c>
-      <c r="B367" s="0">
-        <v>1</v>
-      </c>
-      <c r="C367" s="0">
+        <v>313</v>
+      </c>
+      <c r="B367" s="1">
+        <v>1</v>
+      </c>
+      <c r="C367" s="1">
         <v>1</v>
       </c>
     </row>
